--- a/Jogos_do_Dia/2023-12-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,37 +691,37 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.6</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.64</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -902,34 +902,34 @@
         <v>1.69</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>1.55</v>
@@ -1032,13 +1032,13 @@
         <v>3.89</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1047,22 +1047,22 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,134 +1086,134 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSM Iaşi</t>
+          <t>Ruch Chorzów</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>2.87</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="L5" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.9</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.45</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
-        <v>2.9</v>
+        <v>3.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y5" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Z5" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.89</v>
+        <v>1.13</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>CSM Iaşi</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.23</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>7.12</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>1.26</v>
+        <v>2.34</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>3.14</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="P6" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>8.220000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>2.25</v>
       </c>
       <c r="T6" t="n">
-        <v>3.3</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.57</v>
       </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>0.89</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.63</v>
+        <v>2.83</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.9</v>
+        <v>2.65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ruch Chorzów</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>3.23</v>
       </c>
       <c r="I7" t="n">
-        <v>2.87</v>
+        <v>7.12</v>
       </c>
       <c r="J7" t="n">
-        <v>2.7</v>
+        <v>1.23</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.25</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL7" t="n">
         <v>1.71</v>
       </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="K8" t="n">
         <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1552,10 +1552,10 @@
         <v>4.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1588,19 +1588,19 @@
         <v>3.11</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.31</v>
@@ -1664,13 +1664,13 @@
         <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="M9" t="n">
         <v>1.35</v>
@@ -1691,10 +1691,10 @@
         <v>4.03</v>
       </c>
       <c r="S9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -1727,19 +1727,19 @@
         <v>2.16</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>1.31</v>
@@ -1803,13 +1803,13 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>4.1</v>
+        <v>4.85</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1830,10 +1830,10 @@
         <v>3.14</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
@@ -1866,13 +1866,13 @@
         <v>2.76</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="AH10" t="n">
         <v>1.38</v>
@@ -1899,10 +1899,10 @@
         <v>1.3</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="11">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
         <v>13</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2063,94 +2063,94 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.38</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.25</v>
-      </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>1.7</v>
+        <v>2.43</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.82</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2.51</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Z12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA12" t="n">
         <v>1</v>
       </c>
-      <c r="AA12" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AB12" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.39</v>
+        <v>3.03</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="13">
@@ -2202,94 +2202,94 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.68</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>4.03</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.03</v>
+        <v>2.39</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -2298,28 +2298,28 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO14" t="n">
         <v>1.85</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -2480,94 +2480,94 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.03</v>
       </c>
       <c r="P15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
         <v>1.22</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="S15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>1.77</v>
       </c>
       <c r="W15" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="X15" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.57</v>
+        <v>2.44</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2576,28 +2576,28 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="16">
@@ -2619,94 +2619,94 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.04</v>
       </c>
       <c r="P16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="R16" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="V16" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="W16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB16" t="n">
         <v>1.66</v>
       </c>
-      <c r="X16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AC16" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="17">
@@ -2839,49 +2839,49 @@
         <v>2.84</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,128 +2893,128 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.29</v>
+        <v>0.22</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3036,124 +3036,124 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L19" t="n">
         <v>2.25</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.3</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="O19" t="n">
         <v>1.04</v>
       </c>
       <c r="P19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="R19" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="X19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AC19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>1.3</v>
       </c>
-      <c r="AD19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20">
@@ -3175,130 +3175,130 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.36</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
         <v>1.03</v>
       </c>
       <c r="P20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q20" t="n">
         <v>1.22</v>
       </c>
       <c r="R20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO20" t="n">
         <v>1.67</v>
       </c>
-      <c r="T20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AP20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>1.41</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,128 +3310,128 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA21" t="n">
         <v>1.29</v>
       </c>
-      <c r="K21" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="AB21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AO21" t="n">
         <v>1.67</v>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22">
@@ -3453,124 +3453,124 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R22" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T22" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="V22" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="X22" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.57</v>
+        <v>2.85</v>
       </c>
       <c r="Z22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO22" t="n">
         <v>1.88</v>
       </c>
-      <c r="AA22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="23">
@@ -3610,37 +3610,37 @@
         <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="K23" t="n">
-        <v>3.25</v>
+        <v>3.76</v>
       </c>
       <c r="L23" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="U23" t="n">
         <v>1.62</v>
@@ -3649,13 +3649,13 @@
         <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="Z23" t="n">
         <v>2.43</v>
@@ -3673,43 +3673,43 @@
         <v>3.45</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24">
@@ -3749,13 +3749,13 @@
         <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="K24" t="n">
-        <v>4.15</v>
+        <v>3.73</v>
       </c>
       <c r="L24" t="n">
-        <v>6.1</v>
+        <v>5.42</v>
       </c>
       <c r="M24" t="n">
         <v>1.37</v>
@@ -3776,10 +3776,10 @@
         <v>3.6</v>
       </c>
       <c r="S24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.85</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.01</v>
       </c>
       <c r="U24" t="n">
         <v>1.95</v>
@@ -3812,43 +3812,43 @@
         <v>3.07</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25">
@@ -3888,10 +3888,10 @@
         <v>4.33</v>
       </c>
       <c r="J25" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>4.05</v>
@@ -3915,10 +3915,10 @@
         <v>5.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T25" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="U25" t="n">
         <v>1.5</v>
@@ -3993,7 +3993,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,134 +4005,134 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.11</v>
       </c>
       <c r="L26" t="n">
-        <v>2.29</v>
+        <v>2.78</v>
       </c>
       <c r="M26" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R26" t="n">
         <v>3.3</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4.75</v>
-      </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="U26" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="X26" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>2.43</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.88</v>
+        <v>2.43</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.15</v>
+        <v>1.59</v>
       </c>
       <c r="AC26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4144,128 +4144,128 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>3.1</v>
       </c>
       <c r="H27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T27" t="n">
         <v>2.1</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="V27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG27" t="n">
         <v>1.95</v>
       </c>
-      <c r="W27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1.97</v>
-      </c>
       <c r="AH27" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="28">
@@ -4305,13 +4305,13 @@
         <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.35</v>
@@ -4332,7 +4332,7 @@
         <v>3.65</v>
       </c>
       <c r="S28" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
         <v>1.9</v>
@@ -4377,10 +4377,10 @@
         <v>4.07</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ28" t="n">
         <v>1.33</v>
@@ -4444,13 +4444,13 @@
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="L29" t="n">
-        <v>2.97</v>
+        <v>3.02</v>
       </c>
       <c r="M29" t="n">
         <v>1.57</v>
@@ -4468,13 +4468,13 @@
         <v>1.53</v>
       </c>
       <c r="R29" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="S29" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="T29" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U29" t="n">
         <v>2.2</v>
@@ -4583,13 +4583,13 @@
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="L30" t="n">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="M30" t="n">
         <v>1.36</v>
@@ -4610,7 +4610,7 @@
         <v>3.6</v>
       </c>
       <c r="S30" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T30" t="n">
         <v>2.05</v>
@@ -4722,13 +4722,13 @@
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="M31" t="n">
         <v>1.48</v>
@@ -4749,7 +4749,7 @@
         <v>2.85</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
         <v>1.67</v>
@@ -4785,13 +4785,13 @@
         <v>2.58</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AH31" t="n">
         <v>1.3</v>
@@ -4861,13 +4861,13 @@
         <v>3.23</v>
       </c>
       <c r="J32" t="n">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="K32" t="n">
-        <v>2.94</v>
+        <v>3.37</v>
       </c>
       <c r="L32" t="n">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="n">
         <v>1.43</v>
@@ -4933,10 +4933,10 @@
         <v>1.97</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ32" t="n">
         <v>1.35</v>
@@ -5000,13 +5000,13 @@
         <v>4.25</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="K33" t="n">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
       <c r="L33" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.41</v>
@@ -5027,10 +5027,10 @@
         <v>3.14</v>
       </c>
       <c r="S33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T33" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U33" t="n">
         <v>1.8</v>
@@ -5063,43 +5063,43 @@
         <v>2.32</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="34">
@@ -5121,124 +5121,124 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Unión Española</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.96</v>
+        <v>1.38</v>
       </c>
       <c r="K34" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
-        <v>2.05</v>
+        <v>5.9</v>
       </c>
       <c r="M34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q34" t="n">
         <v>1.22</v>
       </c>
       <c r="R34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
         <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="V34" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="X34" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Y34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH34" t="n">
         <v>1.25</v>
       </c>
-      <c r="Z34" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AI34" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AK34" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="35">
@@ -5278,13 +5278,13 @@
         <v>1.9</v>
       </c>
       <c r="J35" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="L35" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M35" t="n">
         <v>1.3</v>
@@ -5308,7 +5308,7 @@
         <v>1.6</v>
       </c>
       <c r="T35" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U35" t="n">
         <v>1.85</v>
@@ -5399,124 +5399,124 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Unión Española</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.39</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>4.35</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>5.9</v>
+        <v>1.89</v>
       </c>
       <c r="M36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N36" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q36" t="n">
         <v>1.22</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S36" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="T36" t="n">
         <v>2.05</v>
       </c>
       <c r="U36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.85</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.07</v>
-      </c>
       <c r="X36" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.21</v>
+        <v>2.2</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG36" t="n">
-        <v>5.6</v>
+        <v>1.91</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AI36" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AK36" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AM36" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AN36" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AP36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-12-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T2" t="n">
         <v>2.2</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AB2" t="n">
         <v>1.48</v>
@@ -878,10 +878,10 @@
         <v>1.18</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AB3" t="n">
         <v>1.62</v>
@@ -969,13 +969,13 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -1017,10 +1017,10 @@
         <v>1.45</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AB4" t="n">
         <v>2.32</v>
@@ -1041,10 +1041,10 @@
         <v>2.37</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ4" t="n">
         <v>1.57</v>
@@ -1065,10 +1065,10 @@
         <v>1.51</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>2.87</v>
       </c>
       <c r="J5" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="K5" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.11</v>
+        <v>2.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.35</v>
@@ -1135,10 +1135,10 @@
         <v>3.52</v>
       </c>
       <c r="S5" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
         <v>1.71</v>
@@ -1156,10 +1156,10 @@
         <v>1.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AB5" t="n">
         <v>1.48</v>
@@ -1247,13 +1247,13 @@
         <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.45</v>
@@ -1274,10 +1274,10 @@
         <v>2.9</v>
       </c>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
@@ -1295,10 +1295,10 @@
         <v>1.57</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AB6" t="n">
         <v>1.59</v>
@@ -1386,13 +1386,13 @@
         <v>7.12</v>
       </c>
       <c r="J7" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.16</v>
@@ -1413,10 +1413,10 @@
         <v>8.220000000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="T7" t="n">
-        <v>2.37</v>
+        <v>3.54</v>
       </c>
       <c r="U7" t="n">
         <v>1.57</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AB7" t="n">
         <v>2.18</v>
@@ -1525,13 +1525,13 @@
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1552,10 +1552,10 @@
         <v>4.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1573,10 +1573,10 @@
         <v>1.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AB8" t="n">
         <v>1.74</v>
@@ -1664,13 +1664,13 @@
         <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.45</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.15</v>
       </c>
       <c r="M9" t="n">
         <v>1.35</v>
@@ -1691,10 +1691,10 @@
         <v>4.03</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="T9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -1712,10 +1712,10 @@
         <v>1.78</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AB9" t="n">
         <v>1.16</v>
@@ -1803,13 +1803,13 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1830,10 +1830,10 @@
         <v>3.14</v>
       </c>
       <c r="S10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
@@ -1851,10 +1851,10 @@
         <v>2.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AB10" t="n">
         <v>1.78</v>
@@ -1942,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
         <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>2.43</v>
       </c>
       <c r="K12" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.26</v>
@@ -2108,16 +2108,16 @@
         <v>4.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="T12" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
         <v>1.47</v>
@@ -2211,22 +2211,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="K13" t="n">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>4.03</v>
+        <v>4.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.33</v>
@@ -2250,13 +2250,13 @@
         <v>1.61</v>
       </c>
       <c r="T13" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
         <v>1.22</v>
@@ -2304,7 +2304,7 @@
         <v>3.18</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AM13" t="n">
         <v>2.33</v>
@@ -2930,16 +2930,16 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="S18" t="n">
         <v>1.68</v>
@@ -2954,13 +2954,13 @@
         <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Z18" t="n">
         <v>1.75</v>
@@ -2993,16 +2993,16 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>1.98</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.3</v>
@@ -3332,13 +3332,13 @@
         <v>8.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="K21" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
         <v>1.22</v>
@@ -3359,10 +3359,10 @@
         <v>6.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="U21" t="n">
         <v>1.91</v>
@@ -3543,10 +3543,10 @@
         <v>6.47</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ22" t="n">
         <v>1.27</v>
@@ -3601,22 +3601,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>2.44</v>
       </c>
       <c r="K23" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="M23" t="n">
         <v>1.31</v>
@@ -3637,16 +3637,16 @@
         <v>4.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="T23" t="n">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
         <v>1.38</v>
@@ -3673,13 +3673,13 @@
         <v>3.45</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.54</v>
+        <v>2.13</v>
       </c>
       <c r="AH23" t="n">
         <v>1.21</v>
@@ -3715,7 +3715,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,134 +3727,134 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R24" t="n">
         <v>5.5</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="S24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP24" t="n">
         <v>2.9</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>2.85</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,134 +3866,134 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>4.05</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P25" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1.25</v>
       </c>
-      <c r="N25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P25" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X25" t="n">
         <v>1.16</v>
       </c>
-      <c r="R25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="Y25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA25" t="n">
         <v>1.5</v>
       </c>
-      <c r="V25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="AB25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH25" t="n">
         <v>1.2</v>
       </c>
-      <c r="X25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AI25" t="n">
-        <v>3.35</v>
+        <v>4.25</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.43</v>
+        <v>2.9</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,134 +4005,134 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>3.1</v>
       </c>
       <c r="H26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AO26" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4144,128 +4144,128 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="M27" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R27" t="n">
         <v>3.3</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4.75</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="U27" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="X27" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>2.43</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.88</v>
+        <v>2.43</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.15</v>
+        <v>1.59</v>
       </c>
       <c r="AC27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="28">
@@ -4305,13 +4305,13 @@
         <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="M28" t="n">
         <v>1.35</v>
@@ -4332,10 +4332,10 @@
         <v>3.65</v>
       </c>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
         <v>1.83</v>
@@ -4444,13 +4444,13 @@
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="M29" t="n">
         <v>1.57</v>
@@ -4468,13 +4468,13 @@
         <v>1.53</v>
       </c>
       <c r="R29" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="S29" t="n">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="T29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U29" t="n">
         <v>2.2</v>
@@ -4583,13 +4583,13 @@
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.36</v>
@@ -4610,10 +4610,10 @@
         <v>3.6</v>
       </c>
       <c r="S30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>1.67</v>
@@ -4722,13 +4722,13 @@
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
-        <v>4.35</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.48</v>
@@ -4749,10 +4749,10 @@
         <v>2.85</v>
       </c>
       <c r="S31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="U31" t="n">
         <v>2.1</v>
@@ -4861,13 +4861,13 @@
         <v>3.23</v>
       </c>
       <c r="J32" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.43</v>
@@ -4888,10 +4888,10 @@
         <v>2.9</v>
       </c>
       <c r="S32" t="n">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
         <v>1.77</v>
@@ -5000,13 +5000,13 @@
         <v>4.25</v>
       </c>
       <c r="J33" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K33" t="n">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>3.39</v>
+        <v>3.7</v>
       </c>
       <c r="M33" t="n">
         <v>1.41</v>
@@ -5027,10 +5027,10 @@
         <v>3.14</v>
       </c>
       <c r="S33" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T33" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="n">
         <v>1.8</v>
@@ -5121,31 +5121,31 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>5.75</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="J34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L34" t="n">
         <v>1.38</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.9</v>
       </c>
       <c r="M34" t="n">
         <v>1.3</v>
@@ -5160,16 +5160,16 @@
         <v>10</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="U34" t="n">
         <v>1.85</v>
@@ -5178,67 +5178,67 @@
         <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>1.07</v>
+        <v>2.8</v>
       </c>
       <c r="X34" t="n">
         <v>1.14</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.75</v>
+        <v>1.06</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.79</v>
+        <v>0.64</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.21</v>
+        <v>3.58</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
-        <v>5.6</v>
+        <v>1.41</v>
       </c>
       <c r="AH34" t="n">
         <v>1.25</v>
       </c>
       <c r="AI34" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AK34" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AM34" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="35">
@@ -5260,124 +5260,124 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>Unión Española</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I35" t="n">
         <v>2.4</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.86</v>
       </c>
       <c r="M35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>1.3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P35" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1.26</v>
       </c>
     </row>
     <row r="36">
@@ -5399,124 +5399,124 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Unión Española</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.15</v>
+        <v>1.5</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.89</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q36" t="n">
         <v>1.22</v>
       </c>
       <c r="R36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="T36" t="n">
         <v>2.05</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="V36" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="X36" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Y36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH36" t="n">
         <v>1.25</v>
       </c>
-      <c r="Z36" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AI36" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AK36" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AN36" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AP36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
